--- a/assets/findings/2024-03-02-findings.xlsx
+++ b/assets/findings/2024-03-02-findings.xlsx
@@ -626,8 +626,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -659,8 +661,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -884,8 +888,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -917,8 +923,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -983,8 +991,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1016,8 +1026,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1082,8 +1094,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1115,8 +1129,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1181,8 +1197,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1214,8 +1232,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1280,8 +1300,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -1313,8 +1335,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1379,8 +1403,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -1412,8 +1438,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1478,8 +1506,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -1511,8 +1541,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1577,8 +1609,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -1610,8 +1644,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1676,8 +1712,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1709,8 +1747,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1775,8 +1815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1808,8 +1850,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1874,8 +1918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1907,8 +1953,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1973,8 +2021,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2006,8 +2056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -2072,8 +2124,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -2105,8 +2159,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -2171,8 +2227,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -2204,8 +2262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -2270,8 +2330,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -2303,8 +2365,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -2369,8 +2433,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -2402,8 +2468,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -2468,8 +2536,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2501,8 +2571,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2567,8 +2639,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2600,8 +2674,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2666,8 +2742,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2699,8 +2777,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -2765,8 +2845,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2798,8 +2880,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -2864,8 +2948,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2897,8 +2983,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2963,8 +3051,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2996,8 +3086,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -3062,8 +3154,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -3095,8 +3189,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -3161,8 +3257,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -3194,8 +3292,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -3260,8 +3360,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -3293,8 +3395,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -3566,8 +3670,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>87077</v>
@@ -3602,8 +3708,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3668,8 +3776,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3701,8 +3811,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3767,8 +3879,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3800,8 +3914,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3866,8 +3982,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3899,8 +4017,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3965,8 +4085,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3998,8 +4120,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4231,8 +4355,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4264,8 +4390,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4489,8 +4617,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4522,8 +4652,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4588,8 +4720,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4621,8 +4755,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4687,8 +4823,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -4720,8 +4858,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4786,8 +4926,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -4819,8 +4961,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4885,8 +5029,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -4918,8 +5064,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4984,8 +5132,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -5017,8 +5167,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -5083,8 +5235,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -5116,8 +5270,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -5182,8 +5338,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -5215,8 +5373,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>1</v>
+      <c r="U9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -5281,8 +5441,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -5314,8 +5476,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -5380,8 +5544,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -5413,8 +5579,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -5479,8 +5647,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -5512,8 +5682,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -5578,8 +5750,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -5611,8 +5785,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -5677,8 +5853,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -5710,8 +5888,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>1</v>
+      <c r="U14" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -5776,8 +5956,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -5809,8 +5991,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>1</v>
+      <c r="U15" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -5875,8 +6059,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -5908,8 +6094,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -5974,8 +6162,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -6007,8 +6197,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -6073,8 +6265,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -6106,8 +6300,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>1</v>
+      <c r="U18" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -6172,8 +6368,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -6205,8 +6403,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>1</v>
+      <c r="U19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -6271,8 +6471,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -6304,8 +6506,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>1</v>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -6370,8 +6574,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -6403,8 +6609,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -6469,8 +6677,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -6502,8 +6712,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -6568,8 +6780,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -6601,8 +6815,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -6667,8 +6883,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -6700,8 +6918,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -6766,8 +6986,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -6799,8 +7021,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>1</v>
+      <c r="U25" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -6865,8 +7089,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -6898,8 +7124,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>1</v>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -7171,8 +7399,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>87077</v>
@@ -7207,8 +7437,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -7273,8 +7505,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -7306,8 +7540,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>1</v>
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -7372,8 +7608,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -7405,8 +7643,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -7471,8 +7711,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -7504,8 +7746,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -7570,8 +7814,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -7603,8 +7849,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
